--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -981,13 +981,6 @@
     <t>August 2020 - Juli 2025</t>
   </si>
   <si>
-    <t xml:space="preserve">410.1 Bildungsgesetz (BiG) §7 
-412.100 Volksschulgesetz (VSG) § 30 
-412.101 Volksschulverordnung (VSV) § 32
-412.31 Lehrpersonalgesetz (LPG) § 23 Abs. 3
-</t>
-  </si>
-  <si>
     <t>Wie und von wem werden die Termine festgelegt?</t>
   </si>
   <si>
@@ -1024,6 +1017,13 @@
   </si>
   <si>
     <t>Datum der Erstellung des Kalendereintrags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410.1 Bildungsgesetz (BiG) §7 &lt;br&gt;
+412.100 Volksschulgesetz (VSG) § 30 &lt;br&gt;
+412.101 Volksschulverordnung (VSV) § 32 &lt;br&gt;
+412.31 Lehrpersonalgesetz (LPG) § 23 Abs. 3
+</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1805,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1823,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1859,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1913,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -2115,10 +2115,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2131,10 +2131,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2244,13 +2244,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="E30" s="7"/>
     </row>
@@ -2961,6 +2961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3074,22 +3089,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3103,27 +3126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -1019,9 +1019,9 @@
     <t>Datum der Erstellung des Kalendereintrags</t>
   </si>
   <si>
-    <t xml:space="preserve">410.1 Bildungsgesetz (BiG) §7 &lt;br&gt;
-412.100 Volksschulgesetz (VSG) § 30 &lt;br&gt;
-412.101 Volksschulverordnung (VSV) § 32 &lt;br&gt;
+    <t xml:space="preserve">410.1 Bildungsgesetz (BiG) §7 
+412.100 Volksschulgesetz (VSG) § 30 
+412.101 Volksschulverordnung (VSV) § 32 
 412.31 Lehrpersonalgesetz (LPG) § 23 Abs. 3
 </t>
   </si>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2961,21 +2961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3089,17 +3074,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3113,17 +3114,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\szh.loc\ssz\users\sszsim\Dokumente\GitHub\opendatazurich.github.io\automation\schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="15" yWindow="-45" windowWidth="21225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -945,9 +945,6 @@
     <t>Stadt Zürich</t>
   </si>
   <si>
-    <t>28.05.2021</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -1024,6 +1021,9 @@
 412.101 Volksschulverordnung (VSV) § 32 
 412.31 Lehrpersonalgesetz (LPG) § 23 Abs. 3
 </t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
   </si>
 </sst>
 </file>
@@ -1756,22 +1756,22 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="53.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="53.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="88.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1805,14 +1805,14 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1823,14 +1823,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1859,14 +1859,14 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1895,14 +1895,14 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1913,14 +1913,14 @@
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -1931,14 +1931,14 @@
         <v>14</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -1965,14 +1965,14 @@
         <v>15</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -1983,14 +1983,14 @@
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -2037,14 +2037,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>129</v>
       </c>
@@ -2080,14 +2080,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
@@ -2110,15 +2110,15 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="137.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2126,26 +2126,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2153,7 +2153,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
         <v>26</v>
@@ -2185,76 +2185,76 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>169</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>182</v>
-      </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="D31" s="21"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -2272,7 +2272,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="D33" s="21"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>30</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>30</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
@@ -2326,7 +2326,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="D39" s="21"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>30</v>
       </c>
@@ -2344,21 +2344,21 @@
       <c r="D40" s="21"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2379,131 +2379,131 @@
       <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>128</v>
       </c>
@@ -2525,14 +2525,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2540,27 +2540,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
@@ -2568,12 +2568,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>128</v>
       </c>
@@ -2595,14 +2595,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2610,118 +2610,118 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
     </row>
-    <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
     </row>
-    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
     </row>
   </sheetData>
@@ -2741,15 +2741,15 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>87</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>88</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>89</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>90</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>92</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>93</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>94</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>96</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>97</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>98</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>99</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>100</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>101</v>
       </c>
@@ -2940,12 +2940,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>128</v>
       </c>
@@ -2961,6 +2961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3074,22 +3089,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3103,27 +3126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="186">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -975,12 +975,6 @@
     <t>Textuelle Beschreibung der Ferien oder der Feiertage</t>
   </si>
   <si>
-    <t>termine, volksschule, ferien, schulfrei</t>
-  </si>
-  <si>
-    <t>August 2020 - Juli 2025</t>
-  </si>
-  <si>
     <t>Wie und von wem werden die Termine festgelegt?</t>
   </si>
   <si>
@@ -988,9 +982,6 @@
   </si>
   <si>
     <t>Schulpflege (ZSP), Stadt Zürich</t>
-  </si>
-  <si>
-    <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2020/2021 bis 2024/2025</t>
   </si>
   <si>
     <t>Wer erfasst die Daten in der Stadt Zürich?</t>
@@ -1024,6 +1015,21 @@
 412.101 Volksschulverordnung (VSV) § 32 
 412.31 Lehrpersonalgesetz (LPG) § 23 Abs. 3
 </t>
+  </si>
+  <si>
+    <t>August 2018 - Juli 2025</t>
+  </si>
+  <si>
+    <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2018/2019 bis 2024/2025</t>
+  </si>
+  <si>
+    <t>termine, volksschule, ferien, schulfrei, feiertage</t>
+  </si>
+  <si>
+    <t>Andere Formate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Daten können auch als ICS Kalender-Dateien (iCal Standard) für den Import in eine Kalenderapplikation oder als PDF bezogen werden. Beides ist auf der [Webseite des Sport- und Schuldepartements](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html) zu finden. </t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1805,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1823,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1859,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
@@ -1895,7 +1901,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1913,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -1931,7 +1937,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -2037,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
@@ -2115,10 +2121,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2131,76 +2137,72 @@
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>179</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="62.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2208,17 +2210,17 @@
         <v>30</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2226,41 +2228,50 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
@@ -2344,11 +2355,13 @@
       <c r="D40" s="21"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -2364,6 +2377,13 @@
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -2961,6 +2981,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3074,22 +3109,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3103,27 +3146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -981,9 +981,6 @@
     <t>Wie und von wem werden die Termine festgelegt?</t>
   </si>
   <si>
-    <t>Kommunikation, Schulamt, Schul- und Sportdepartement, Stadt Zürich</t>
-  </si>
-  <si>
     <t>Schulpflege (ZSP), Stadt Zürich</t>
   </si>
   <si>
@@ -1023,7 +1020,10 @@
 </t>
   </si>
   <si>
-    <t>11.06.2021</t>
+    <t>18.06.2021</t>
+  </si>
+  <si>
+    <t>Behörden und Politik. , Schulamt, Schul- und Sportdepartement</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1823,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1859,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1913,7 +1913,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -1965,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
@@ -1983,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
@@ -2118,7 +2118,7 @@
         <v>171</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2131,10 +2131,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2244,13 +2244,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>180</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>181</v>
       </c>
       <c r="E30" s="7"/>
     </row>
@@ -2961,21 +2961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3089,17 +3074,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3113,17 +3114,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="186">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -1023,7 +1023,13 @@
     <t>18.06.2021</t>
   </si>
   <si>
-    <t>Behörden und Politik. , Schulamt, Schul- und Sportdepartement</t>
+    <t>Behörden und Politik, Schulamt, Schul- und Sportdepartement</t>
+  </si>
+  <si>
+    <t>Weitere Informationen:</t>
+  </si>
+  <si>
+    <t>Weitere Informationen finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html)».</t>
   </si>
 </sst>
 </file>
@@ -1753,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2138,69 +2144,65 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>185</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2208,17 +2210,17 @@
         <v>30</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2226,17 +2228,17 @@
         <v>30</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2244,23 +2246,32 @@
         <v>30</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2345,10 +2356,12 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2364,6 +2377,13 @@
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -2961,6 +2981,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3074,22 +3109,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3103,27 +3146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\szh.loc\ssz\users\sszsim\Dokumente\GitHub\opendatazurich.github.io\automation\schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-45" windowWidth="21225" windowHeight="12540"/>
+    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
     <t>Weitere Informationen:</t>
   </si>
   <si>
-    <t>Weitere Informationen finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html)».</t>
+    <t>Weitere Informationen, unter anderem auch den Download als Kalenderdatei (iCal), finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html)».</t>
   </si>
 </sst>
 </file>
@@ -1761,23 +1761,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="53.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="53.58203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="88.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>129</v>
       </c>
@@ -2086,14 +2086,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="137.5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>51</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="50" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2159,13 +2159,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2173,7 +2173,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="13" t="s">
         <v>26</v>
@@ -2205,7 +2205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="D33" s="21"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="D34" s="21"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="D36" s="21"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>30</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="D37" s="21"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="D38" s="21"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="D39" s="21"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>30</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="D40" s="21"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>30</v>
       </c>
@@ -2364,21 +2364,21 @@
       <c r="D41" s="21"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2399,131 +2399,131 @@
       <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>128</v>
       </c>
@@ -2545,14 +2545,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2560,27 +2560,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
@@ -2588,12 +2588,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>128</v>
       </c>
@@ -2615,14 +2615,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2630,118 +2630,118 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
     </row>
   </sheetData>
@@ -2761,15 +2761,15 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="58.58203125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>87</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>88</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>89</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>90</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>92</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>93</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>94</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>96</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>97</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>98</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>99</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>100</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>101</v>
       </c>
@@ -2960,12 +2960,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>128</v>
       </c>
@@ -2981,21 +2981,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3109,17 +3094,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3133,17 +3134,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sszsim\opendatazurich\opendatazurich.github.io\automation\schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C4737-A224-4629-AA28-20649B57B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="43680" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="187">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -975,16 +976,10 @@
     <t>termine, volksschule, ferien, schulfrei</t>
   </si>
   <si>
-    <t>August 2020 - Juli 2025</t>
-  </si>
-  <si>
     <t>Wie und von wem werden die Termine festgelegt?</t>
   </si>
   <si>
     <t>Schulpflege (ZSP), Stadt Zürich</t>
-  </si>
-  <si>
-    <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2020/2021 bis 2024/2025</t>
   </si>
   <si>
     <t>Wer erfasst die Daten in der Stadt Zürich?</t>
@@ -1031,11 +1026,20 @@
   <si>
     <t>Weitere Informationen, unter anderem auch den Download als Kalenderdatei (iCal), finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html)».</t>
   </si>
+  <si>
+    <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2020/2021 bis 2029/2030</t>
+  </si>
+  <si>
+    <t>August 2020 - Juli 2030</t>
+  </si>
+  <si>
+    <t>20.11.2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1508,11 +1512,11 @@
   <cellStyles count="7">
     <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
-    <cellStyle name="Standard 6" xfId="5"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1758,11 +1762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1829,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1865,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
@@ -1901,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1919,7 +1923,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -1937,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -1971,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
@@ -1989,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
@@ -2121,10 +2125,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2137,10 +2141,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2151,10 +2155,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
@@ -2264,101 +2268,81 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>180</v>
-      </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -2392,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,7 +2514,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A24" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2538,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2600,7 +2584,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A11" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2608,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2746,7 +2730,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A21" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2754,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2957,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A22" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2981,6 +2965,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3094,15 +3087,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3110,6 +3094,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3121,14 +3113,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sszsim\opendatazurich\opendatazurich.github.io\automation\schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758C4737-A224-4629-AA28-20649B57B904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7466ED2-8FF9-4059-B66E-912929BFEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23688" yWindow="1500" windowWidth="21516" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="186">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -977,9 +977,6 @@
   </si>
   <si>
     <t>Wie und von wem werden die Termine festgelegt?</t>
-  </si>
-  <si>
-    <t>Schulpflege (ZSP), Stadt Zürich</t>
   </si>
   <si>
     <t>Wer erfasst die Daten in der Stadt Zürich?</t>
@@ -1030,10 +1027,10 @@
     <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2020/2021 bis 2029/2030</t>
   </si>
   <si>
-    <t>August 2020 - Juli 2030</t>
-  </si>
-  <si>
     <t>20.11.2023</t>
+  </si>
+  <si>
+    <t>01.08.2020 - 15.07.2030</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,14 +1180,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="3" tint="-0.249977111117893"/>
@@ -1400,9 +1389,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -1473,27 +1462,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1503,9 +1492,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1766,7 +1752,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A41"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1801,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1833,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1869,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
@@ -1905,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1922,8 +1908,8 @@
       <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>171</v>
+      <c r="D8" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -1975,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
@@ -1993,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
@@ -2128,7 +2114,7 @@
         <v>170</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2141,10 +2127,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2155,10 +2141,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>183</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
@@ -2268,13 +2254,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -2965,15 +2951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3087,6 +3064,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3094,14 +3080,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3113,6 +3091,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/automation/schulferien/metadata_ferientermine_volksschule.xlsx
+++ b/automation/schulferien/metadata_ferientermine_volksschule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sszsim\opendatazurich\opendatazurich.github.io\automation\schulferien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\schulferien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7466ED2-8FF9-4059-B66E-912929BFEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71712C-89C5-4952-9160-41C97F047DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23688" yWindow="1500" windowWidth="21516" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -1021,9 +1021,6 @@
     <t>Weitere Informationen:</t>
   </si>
   <si>
-    <t>Weitere Informationen, unter anderem auch den Download als Kalenderdatei (iCal), finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/ssd/de/index/volksschule/schulferien.html)».</t>
-  </si>
-  <si>
     <t>Ferien und schulfreie Tage der Volksschule der Stadt Zürich, Schuljahre 2020/2021 bis 2029/2030</t>
   </si>
   <si>
@@ -1031,6 +1028,9 @@
   </si>
   <si>
     <t>01.08.2020 - 15.07.2030</t>
+  </si>
+  <si>
+    <t>Weitere Informationen, unter anderem auch den Download als Kalenderdatei (iCal), finden Sie auf der Webseite vom Schul- und Sportdepartement unter «[Ferien und schulfreie Tage](https://www.stadt-zuerich.ch/de/bildung/volksschule/schulferien.html)».</t>
   </si>
 </sst>
 </file>
@@ -1752,22 +1752,22 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="53.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="53.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="88.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1801,14 +1801,14 @@
         <v>14</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -1927,14 +1927,14 @@
         <v>14</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -1979,14 +1979,14 @@
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>129</v>
       </c>
@@ -2076,14 +2076,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="137.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>51</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2144,18 +2144,18 @@
         <v>181</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2163,7 +2163,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="13" t="s">
         <v>26</v>
@@ -2195,7 +2195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
@@ -2264,91 +2264,91 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2369,131 +2369,131 @@
       <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>128</v>
       </c>
@@ -2515,14 +2515,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2530,27 +2530,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>71</v>
       </c>
@@ -2558,12 +2558,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>128</v>
       </c>
@@ -2585,14 +2585,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2600,118 +2600,118 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
     </row>
-    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
     </row>
-    <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
     </row>
-    <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
     </row>
-    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
     </row>
-    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
     </row>
   </sheetData>
@@ -2731,15 +2731,15 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>70</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>87</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>88</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>89</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>90</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>91</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>92</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>94</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>96</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>97</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>98</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>99</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>100</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>101</v>
       </c>
@@ -2930,12 +2930,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>128</v>
       </c>
@@ -2951,6 +2951,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3064,22 +3079,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3093,27 +3116,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>